--- a/我的创作/股票/技术投资/SEAP交易系统/趋势分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/趋势分析.xlsx
@@ -2418,11 +2418,11 @@
   <dimension ref="A1:AH68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AB12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH20" sqref="AH20"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
